--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2817134.992270424</v>
+        <v>2960990.982462917</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5096956.44009346</v>
+        <v>5378975.499216464</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>250.8544828083146</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -674,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>383.1178490726507</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.55748904901071</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>147.3921814058116</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -877,7 +879,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -896,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>102.359917903752</v>
+        <v>373.3650487901176</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>181.754642075143</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.56122003176188</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>400.7950794125001</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>160.7099315287913</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>22.37121373093317</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>109.7405548471883</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4518055257772</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>74.1968860746061</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>186.9220244343992</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1610,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V14" t="n">
-        <v>233.7294380438538</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1765,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>46.28219172029932</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>38.707720993564</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>163.3832582871659</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2296,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>75.68373988188495</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>28.16874740712048</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>108.3554797687791</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>166.9566948984966</v>
       </c>
       <c r="C31" t="n">
-        <v>51.69511841098215</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>106.7228969293689</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>244.1168084700965</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>124.229055783122</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>124.4294523839914</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3512,7 +3514,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924929</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396256</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>98.15366458399271</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>20.63623093988602</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>172.5492770956969</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>203.561085941672</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>56.33567739176592</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3983,10 +3985,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>8.455638417400568</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>3.602641900785307</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>77.86122520429294</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387.7684189170776</v>
+        <v>860.9393037881883</v>
       </c>
       <c r="C2" t="n">
-        <v>134.3800524440326</v>
+        <v>434.0385738014884</v>
       </c>
       <c r="D2" t="n">
-        <v>115.1278356694369</v>
+        <v>414.7863570268928</v>
       </c>
       <c r="E2" t="n">
-        <v>93.19129985769854</v>
+        <v>392.8498212151544</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>371.7660434449587</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>358.3859952497895</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>358.3859952497895</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="M2" t="n">
-        <v>815.1719019525203</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="N2" t="n">
-        <v>815.1719019525203</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1676.751855212284</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1676.751855212284</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.67405208597</v>
+        <v>1289.764128876273</v>
       </c>
       <c r="X2" t="n">
-        <v>1212.954053253717</v>
+        <v>1282.084534084424</v>
       </c>
       <c r="Y2" t="n">
-        <v>807.6167832086077</v>
+        <v>1280.787668079719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>475.2419029331441</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>328.5536830608395</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>807.4926073032677</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.0250338259016</v>
+        <v>490.8297886047868</v>
       </c>
       <c r="C4" t="n">
-        <v>344.0250338259016</v>
+        <v>468.0444461310386</v>
       </c>
       <c r="D4" t="n">
-        <v>180.7082609526723</v>
+        <v>304.7276732578093</v>
       </c>
       <c r="E4" t="n">
-        <v>180.7082609526723</v>
+        <v>304.7276732578093</v>
       </c>
       <c r="F4" t="n">
-        <v>180.7082609526723</v>
+        <v>304.7276732578093</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1649.680018409508</v>
+        <v>1521.632369360907</v>
       </c>
       <c r="U4" t="n">
-        <v>1369.495569909813</v>
+        <v>1241.447920861211</v>
       </c>
       <c r="V4" t="n">
-        <v>1087.784102517842</v>
+        <v>959.7364534692397</v>
       </c>
       <c r="W4" t="n">
-        <v>812.9316986903546</v>
+        <v>959.7364534692397</v>
       </c>
       <c r="X4" t="n">
-        <v>570.3678021361596</v>
+        <v>717.1725569150448</v>
       </c>
       <c r="Y4" t="n">
-        <v>344.0250338259016</v>
+        <v>490.8297886047868</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1012.734393912848</v>
+        <v>783.8507533973007</v>
       </c>
       <c r="C5" t="n">
-        <v>585.8336639261486</v>
+        <v>760.9904274510048</v>
       </c>
       <c r="D5" t="n">
-        <v>162.5410431111488</v>
+        <v>741.7382106764092</v>
       </c>
       <c r="E5" t="n">
-        <v>140.6045072994104</v>
+        <v>719.8016748646708</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1313.087264683184</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>1769.873171385915</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1845.599623041337</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.920028249488</v>
+        <v>1204.995983693536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1432.582758204378</v>
+        <v>1203.699117688831</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050605</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="L6" t="n">
-        <v>1229.627938107791</v>
+        <v>1246.033289107808</v>
       </c>
       <c r="M6" t="n">
-        <v>1388.813716338606</v>
+        <v>1246.033289107808</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>1246.033289107808</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>784.8037789907503</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C7" t="n">
-        <v>784.8037789907503</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D7" t="n">
-        <v>784.8037789907503</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1628.425962247645</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.241513747949</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1348.241513747949</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W7" t="n">
-        <v>1073.389109920462</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X7" t="n">
-        <v>830.8252133662673</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.8037789907503</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>908.3670997859888</v>
+        <v>709.2637433779112</v>
       </c>
       <c r="C8" t="n">
-        <v>503.5235852279079</v>
+        <v>686.4034174316154</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>667.1512006570197</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>950.4838058662885</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.232328914477</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1329.512330082224</v>
+        <v>1534.449377714551</v>
       </c>
       <c r="Y8" t="n">
-        <v>924.1750600371148</v>
+        <v>1129.112107669441</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>493.6978991635576</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M9" t="n">
-        <v>493.6978991635576</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N9" t="n">
-        <v>932.0278096358747</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>932.0278096358747</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.7718677728423</v>
+        <v>740.4547267029481</v>
       </c>
       <c r="C10" t="n">
-        <v>474.7993046517582</v>
+        <v>568.482163581864</v>
       </c>
       <c r="D10" t="n">
-        <v>474.7993046517582</v>
+        <v>405.1653907086347</v>
       </c>
       <c r="E10" t="n">
-        <v>474.7993046517582</v>
+        <v>238.9571848614883</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>67.09541063604871</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1687.71196442832</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1444.37261665422</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1164.188168154524</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1164.188168154524</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>889.3357643270372</v>
+        <v>1209.361391567401</v>
       </c>
       <c r="X10" t="n">
-        <v>646.7718677728423</v>
+        <v>966.797495013206</v>
       </c>
       <c r="Y10" t="n">
-        <v>646.7718677728423</v>
+        <v>740.4547267029481</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1049.778315921867</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>622.8775859351674</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>622.8775859351674</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>622.8775859351674</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>622.8775859351674</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>435.087708579895</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L11" t="n">
-        <v>1332.080299397014</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M11" t="n">
-        <v>2153.578082946771</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N11" t="n">
-        <v>3050.570673763891</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O11" t="n">
-        <v>3050.570673763891</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.570673763891</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2286.68394909076</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>1874.963950258507</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1469.626680213397</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>72.48424976299954</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M12" t="n">
-        <v>72.48424976299954</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N12" t="n">
-        <v>969.4768405801187</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>568.2661981891431</v>
+        <v>850.6571429016585</v>
       </c>
       <c r="C13" t="n">
-        <v>568.2661981891431</v>
+        <v>678.6845797805745</v>
       </c>
       <c r="D13" t="n">
-        <v>404.9494253159138</v>
+        <v>515.3678069073452</v>
       </c>
       <c r="E13" t="n">
-        <v>238.7412194687674</v>
+        <v>515.3678069073452</v>
       </c>
       <c r="F13" t="n">
-        <v>238.7412194687674</v>
+        <v>343.5060326819056</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299954</v>
+        <v>177.2490629761377</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2064.087151484815</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1783.90270298512</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1502.191235593149</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>1227.338831765662</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>984.7749352114668</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.4321669012088</v>
+        <v>1040.823111613724</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1754.825163822993</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1327.924433836293</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.924433836293</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>72.48424976299954</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>100.170072841217</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>815.6783808167161</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1712.670971633835</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2609.663562450954</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3506.656153268074</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.656153268074</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268074</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3388.122146691539</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2991.730796991885</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2580.010798159632</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2174.673528114523</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L15" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M15" t="n">
-        <v>94.69801151491856</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N15" t="n">
-        <v>991.6906023320378</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1055.896804027512</v>
+        <v>896.9441885421152</v>
       </c>
       <c r="C16" t="n">
-        <v>883.9242409064284</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D16" t="n">
-        <v>720.6074680331991</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>554.3992621860526</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>382.537487960613</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548452</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.663521620956</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U16" t="n">
-        <v>1763.47907312126</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V16" t="n">
-        <v>1763.47907312126</v>
+        <v>1830.869225946121</v>
       </c>
       <c r="W16" t="n">
-        <v>1488.626669293773</v>
+        <v>1556.016822118634</v>
       </c>
       <c r="X16" t="n">
-        <v>1246.062772739578</v>
+        <v>1313.452925564439</v>
       </c>
       <c r="Y16" t="n">
-        <v>1246.062772739578</v>
+        <v>1087.110157254181</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>3833.214576747412</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747412</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.49385590534</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399954</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5585,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677403</v>
+        <v>308.8390190628106</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677403</v>
+        <v>308.8390190628106</v>
       </c>
       <c r="L18" t="n">
-        <v>109.7493563677403</v>
+        <v>308.8390190628106</v>
       </c>
       <c r="M18" t="n">
-        <v>109.7493563677403</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>939.4897558901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683193</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1947.547099108631</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1947.547099108631</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1947.547099108631</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1672.694695281144</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>1430.130798726949</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>1203.788030416692</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5838,16 +5840,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878698</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>1191.617659878698</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1907.815376917196</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3278.556980224821</v>
+        <v>531.6450242445497</v>
       </c>
       <c r="C22" t="n">
-        <v>3106.584417103737</v>
+        <v>531.6450242445497</v>
       </c>
       <c r="D22" t="n">
-        <v>3106.584417103737</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="E22" t="n">
-        <v>3106.584417103737</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878297</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878297</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878297</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102455</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308292</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602713</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572964</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128763</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050664</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291425</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5017.717281294593</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4774.377933520493</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4494.193485020797</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4212.482017628826</v>
+        <v>1465.570061648555</v>
       </c>
       <c r="W22" t="n">
-        <v>3937.629613801339</v>
+        <v>1190.717657821068</v>
       </c>
       <c r="X22" t="n">
-        <v>3695.065717247144</v>
+        <v>948.1537612668733</v>
       </c>
       <c r="Y22" t="n">
-        <v>3468.722948936886</v>
+        <v>721.8109929566153</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>109.7493563677404</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>939.4897558901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>1231.853536150285</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6217,10 @@
         <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>3964.03697209373</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>3792.064408972646</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>4623.109605670248</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>4380.545709116053</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>4154.202940805795</v>
       </c>
     </row>
     <row r="29">
@@ -6479,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6546,22 +6548,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>855.9588572096898</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6655,16 +6657,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>1024.601983369787</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>847.4138558574795</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1538.77499670729</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1263.922592879803</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>1263.922592879803</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>1037.579824569545</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291425</v>
@@ -6968,13 +6970,13 @@
         <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
@@ -7020,13 +7022,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5554397491844</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>371.5828766281004</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>371.5828766281004</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E37" t="n">
-        <v>371.5828766281004</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976741</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976741</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7123,22 +7125,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X37" t="n">
-        <v>960.064176771508</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.72140846125</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7162,37 @@
         <v>1264.531207409473</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988729</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883215</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623564</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>325.1003961287797</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>1040.608704104279</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1970.233751723555</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2974.519853142614</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N38" t="n">
-        <v>3950.770911629314</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629314</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291425</v>
@@ -7248,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>700.2342829360799</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O39" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.971033901635</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C40" t="n">
-        <v>201.4478291472353</v>
+        <v>847.2543031032135</v>
       </c>
       <c r="D40" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9375302299842</v>
       </c>
       <c r="E40" t="n">
-        <v>201.4478291472353</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2044.697402308208</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>2044.697402308208</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1762.985934916237</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1488.13353108875</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>1245.569634534555</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>1019.226866224298</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2387.306854981084</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1960.406124994384</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1537.113504179385</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1111.136564327242</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>686.0123825166422</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>281.6733201060908</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>1882.075247182045</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>1882.075247182045</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>2779.067837999165</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>3624.212488149977</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3624.212488149977</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3624.212488149977</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3212.492489317724</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2807.155219272614</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>79.93089272491137</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>670.4158192932509</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L42" t="n">
-        <v>670.4158192932509</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M42" t="n">
-        <v>670.4158192932509</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N42" t="n">
-        <v>670.4158192932509</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O42" t="n">
-        <v>1335.007093396027</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
-        <v>1335.007093396027</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.459065353514</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C43" t="n">
-        <v>551.459065353514</v>
+        <v>869.7150043171357</v>
       </c>
       <c r="D43" t="n">
-        <v>388.1422924802847</v>
+        <v>706.3982314439064</v>
       </c>
       <c r="E43" t="n">
-        <v>388.1422924802847</v>
+        <v>540.1900255967599</v>
       </c>
       <c r="F43" t="n">
-        <v>216.2805182548452</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G43" t="n">
-        <v>216.2805182548452</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2047.280018649186</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1767.095570149491</v>
+        <v>1982.471668406709</v>
       </c>
       <c r="V43" t="n">
-        <v>1485.384102757519</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.531698930032</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X43" t="n">
-        <v>967.9678023758377</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y43" t="n">
-        <v>741.6250340655797</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1624.885041501216</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1197.984311514516</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>774.6916906995161</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>774.6916906995161</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299954</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>72.48424976299954</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>969.4768405801187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M44" t="n">
-        <v>1866.469431397238</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N44" t="n">
-        <v>1953.232223959334</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O44" t="n">
-        <v>2798.376874110146</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.656153268074</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3615.671439243511</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>3258.182024369761</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>2861.790674670108</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
-        <v>2450.070675837856</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2044.733405792746</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2382.648348600922</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C45" t="n">
-        <v>2265.142445118427</v>
+        <v>3756.065627259876</v>
       </c>
       <c r="D45" t="n">
-        <v>2161.302486633712</v>
+        <v>3652.225668775161</v>
       </c>
       <c r="E45" t="n">
-        <v>2056.60055290665</v>
+        <v>3547.523735048099</v>
       </c>
       <c r="F45" t="n">
-        <v>1962.954722589554</v>
+        <v>3453.877904731003</v>
       </c>
       <c r="G45" t="n">
-        <v>1868.900950807158</v>
+        <v>3359.824132948607</v>
       </c>
       <c r="H45" t="n">
-        <v>1815.524857569467</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="I45" t="n">
-        <v>1815.524857569467</v>
+        <v>3313.894682672829</v>
       </c>
       <c r="J45" t="n">
-        <v>1815.524857569467</v>
+        <v>3313.894682672829</v>
       </c>
       <c r="K45" t="n">
-        <v>1815.524857569467</v>
+        <v>3904.379609241169</v>
       </c>
       <c r="L45" t="n">
-        <v>1815.524857569467</v>
+        <v>4741.178417324075</v>
       </c>
       <c r="M45" t="n">
-        <v>1815.524857569467</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="N45" t="n">
-        <v>2652.711900053802</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="O45" t="n">
-        <v>3542.193178065274</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="P45" t="n">
-        <v>3542.193178065274</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q45" t="n">
-        <v>3542.193178065274</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R45" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S45" t="n">
-        <v>3542.888240711231</v>
+        <v>5033.81142285268</v>
       </c>
       <c r="T45" t="n">
-        <v>3401.00830500891</v>
+        <v>4891.931487150358</v>
       </c>
       <c r="U45" t="n">
-        <v>3216.240108928546</v>
+        <v>4707.163291069995</v>
       </c>
       <c r="V45" t="n">
-        <v>3011.266970067813</v>
+        <v>4502.190152209262</v>
       </c>
       <c r="W45" t="n">
-        <v>2814.74559290103</v>
+        <v>4305.668775042479</v>
       </c>
       <c r="X45" t="n">
-        <v>2651.268246667693</v>
+        <v>4142.191428809142</v>
       </c>
       <c r="Y45" t="n">
-        <v>2511.575358020985</v>
+        <v>4002.498540162434</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>586.165825179685</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>414.193262058601</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D46" t="n">
-        <v>414.193262058601</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E46" t="n">
-        <v>247.9850562114546</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F46" t="n">
-        <v>76.123281986015</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G46" t="n">
-        <v>72.48424976299954</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>2157.029425279572</v>
       </c>
       <c r="U46" t="n">
-        <v>1559.238433421467</v>
+        <v>1876.844976779876</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.526966029496</v>
+        <v>1876.844976779876</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.674562202009</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X46" t="n">
-        <v>1002.674562202009</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>776.3317938917507</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>360.4858157331555</v>
+        <v>519.5412919487773</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865908</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7994,10 +7996,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>500.5723185172007</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>465.1567191589065</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>315.2944278945549</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587966</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178313</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>113.770988142953</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,28 +8297,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>183.8904958969889</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950368</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8383,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8468,13 +8470,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>362.2965767485775</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>379.7269667620468</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>464.1005135391146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8620,13 +8622,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>320.1078160920833</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>867.2270038587824</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8772,22 +8774,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>861.228182326957</v>
+        <v>445.6743064779891</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.38543734237184</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>45.53492369608457</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>693.1063741240905</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,22 +9169,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>763.4300748656121</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>322.1890847023786</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>229.2336452999819</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9249,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>859.4646438927568</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9410,10 +9412,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>866.4310157363752</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9486,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.95407573255626</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>859.4646438927568</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9738,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,10 +10196,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10209,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.13919425001758</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q35" t="n">
-        <v>464.8736204150499</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10670,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>254.4681238522039</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,19 +10831,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>517.654651463558</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>692.6473454890728</v>
+        <v>698.7993741930985</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10920,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>777.1799521565131</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>466.3243076206832</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>382.7645285320491</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11151,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>694.4762069977535</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701171</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>124.9188072406037</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>322.1890847023768</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>400.8313794692477</v>
       </c>
       <c r="N45" t="n">
-        <v>866.9865054704453</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11397,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>184.8438662606687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>68.16141973232105</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>53.98392986195978</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>120.1850826811592</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>123.9706457695738</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.198233302795</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>77.52269600919311</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>203.2106128361664</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9695101815324</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>53.32812537571793</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>21.30761412644836</v>
       </c>
       <c r="C31" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>63.52994056050429</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>34.77754424795489</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>45.91410070006317</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>115.7088052046615</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>71.98949189919247</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.269723356473</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>122.3404176450086</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>37.34486835468698</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>221.0469266229328</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25871,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>247.3157218921513</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.9917581079249</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>163.0447290920661</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>466693.4067522019</v>
+        <v>467152.3704425948</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466693.4067522019</v>
+        <v>468638.3941820938</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466693.4067522019</v>
+        <v>468638.3941820938</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>369097.6585031169</v>
+        <v>464205.7892274897</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369097.658503117</v>
+        <v>464205.7892274897</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>464205.7892274897</v>
+        <v>464205.7892274898</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>464205.7892274897</v>
+        <v>464205.7892274898</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>464205.7892274898</v>
+        <v>464205.7892274897</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>464205.7892274897</v>
+        <v>464205.7892274898</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>369097.6585031169</v>
+        <v>464205.7892274898</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>369097.6585031169</v>
+        <v>464205.7892274898</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.601310884</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.6013108841</v>
+        <v>567881.6013108839</v>
       </c>
       <c r="D2" t="n">
-        <v>567881.6013108841</v>
+        <v>567881.6013108836</v>
       </c>
       <c r="E2" t="n">
-        <v>435717.2692283599</v>
+        <v>547979.643059011</v>
       </c>
       <c r="F2" t="n">
-        <v>435717.26922836</v>
+        <v>547979.6430590112</v>
       </c>
       <c r="G2" t="n">
+        <v>547979.6430590111</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="I2" t="n">
         <v>547979.6430590109</v>
       </c>
-      <c r="H2" t="n">
-        <v>547979.6430590105</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547979.6430590111</v>
-      </c>
       <c r="J2" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="K2" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="L2" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.643059011</v>
       </c>
       <c r="M2" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="N2" t="n">
         <v>547979.6430590107</v>
       </c>
       <c r="O2" t="n">
-        <v>435717.2692283597</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="P2" t="n">
-        <v>435717.26922836</v>
+        <v>547979.6430590107</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176510.6008550963</v>
+        <v>171848.3668116666</v>
       </c>
       <c r="C4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>23382.13283064559</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>23382.13283064559</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591147</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26451,13 +26453,13 @@
         <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
+        <v>29432.28705591153</v>
+      </c>
+      <c r="O4" t="n">
         <v>29432.2870559115</v>
       </c>
-      <c r="O4" t="n">
-        <v>23382.1328306456</v>
-      </c>
       <c r="P4" t="n">
-        <v>23382.13283064559</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175064.5655674389</v>
+        <v>170867.315607465</v>
       </c>
       <c r="C6" t="n">
-        <v>329690.2861855596</v>
+        <v>320275.4407941081</v>
       </c>
       <c r="D6" t="n">
-        <v>329690.2861855595</v>
+        <v>343682.2744677202</v>
       </c>
       <c r="E6" t="n">
-        <v>224483.4385682327</v>
+        <v>225057.9372580292</v>
       </c>
       <c r="F6" t="n">
-        <v>357247.1065778348</v>
+        <v>440797.29381467</v>
       </c>
       <c r="G6" t="n">
-        <v>338637.37372036</v>
+        <v>440797.2938146699</v>
       </c>
       <c r="H6" t="n">
-        <v>440797.2938146694</v>
+        <v>440797.2938146696</v>
       </c>
       <c r="I6" t="n">
+        <v>440797.2938146697</v>
+      </c>
+      <c r="J6" t="n">
+        <v>314220.0252343808</v>
+      </c>
+      <c r="K6" t="n">
+        <v>422150.6934576498</v>
+      </c>
+      <c r="L6" t="n">
         <v>440797.2938146698</v>
       </c>
-      <c r="J6" t="n">
-        <v>320074.776871913</v>
-      </c>
-      <c r="K6" t="n">
-        <v>440797.29381467</v>
-      </c>
-      <c r="L6" t="n">
-        <v>440797.29381467</v>
-      </c>
       <c r="M6" t="n">
-        <v>329987.9337055365</v>
+        <v>260733.422359502</v>
       </c>
       <c r="N6" t="n">
+        <v>440797.2938146695</v>
+      </c>
+      <c r="O6" t="n">
         <v>440797.2938146696</v>
       </c>
-      <c r="O6" t="n">
-        <v>357247.1065778345</v>
-      </c>
       <c r="P6" t="n">
-        <v>357247.1065778348</v>
+        <v>440797.2938146696</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771595</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>171.7772398785183</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>9.309587130005866</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>147.6953484408624</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>93.51377289054741</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>318.5130220887417</v>
+        <v>47.50789120237619</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27670,19 +27672,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>58.38361551350994</v>
       </c>
       <c r="Y7" t="n">
-        <v>178.5181205953935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>21.83664327433274</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>261.0072389248297</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>142.223186277777</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>58.69314215886814</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>324.7212149383462</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>462.9969567069694</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>442.7574853255732</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>292.7793411803253</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598448</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>76.49136530850697</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>160.7937153846609</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35170,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>324.7212149383462</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>357.2118800478173</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35340,13 +35342,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>299.3589151164829</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>829.7957409593506</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>838.0562926047348</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>27.96547785678532</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>22.43814318375659</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,22 +35889,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>726.1504520311661</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>208.6225309666486</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36130,10 +36132,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>829.0400563803511</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.207037443577763</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>838.1216156792152</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3921559610390808</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q35" t="n">
-        <v>428.7489458104519</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>225.0481643666174</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,19 +37551,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641263</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>671.3043172755312</v>
+        <v>677.4563459795569</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>738.8679097238902</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>428.7489458104519</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>671.3043172755313</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>87.63918440615771</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>286.0644100977787</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>377.7345989569197</v>
       </c>
       <c r="N45" t="n">
-        <v>845.6434772569037</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2960990.982462917</v>
+        <v>2960294.321257826</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>198.9494363707996</v>
       </c>
       <c r="W2" t="n">
-        <v>383.1178490726507</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.55748904901071</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>111.8844220535337</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -907,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>373.3650487901176</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>92.9072818001832</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1065,10 +1065,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532361</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>181.754642075143</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>340.9917477555401</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,19 +1141,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>160.7099315287913</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G10" t="n">
-        <v>22.37121373093317</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1536,7 +1536,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>74.1968860746061</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>100.8123657859518</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1767,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>46.28219172029932</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>163.3832582871659</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2298,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>75.68373988188495</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>28.16874740712048</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>108.3554797687791</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2730,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>149.868216810686</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.9566948984966</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3009,16 +3009,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>244.1168084700965</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>124.4294523839914</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3514,7 +3514,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924929</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>20.63623093988602</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855901</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>56.33567739176592</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>123.0249089873119</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>77.86122520429294</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>860.9393037881883</v>
+        <v>1230.082836572064</v>
       </c>
       <c r="C2" t="n">
-        <v>434.0385738014884</v>
+        <v>1207.222510625768</v>
       </c>
       <c r="D2" t="n">
-        <v>414.7863570268928</v>
+        <v>783.9298898107681</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151544</v>
+        <v>761.9933539990298</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449587</v>
+        <v>336.8691721884299</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.7021352923174</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.7021352923174</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="L2" t="n">
-        <v>1359.183442594069</v>
+        <v>1359.183442594068</v>
       </c>
       <c r="M2" t="n">
-        <v>1359.183442594069</v>
+        <v>1359.183442594068</v>
       </c>
       <c r="N2" t="n">
-        <v>1359.183442594069</v>
+        <v>1359.183442594068</v>
       </c>
       <c r="O2" t="n">
-        <v>1359.183442594069</v>
+        <v>1359.183442594068</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.550429733969</v>
+        <v>1479.021285111687</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615871</v>
+        <v>1714.181193660503</v>
       </c>
       <c r="U2" t="n">
-        <v>1676.751855212284</v>
+        <v>1455.826284256915</v>
       </c>
       <c r="V2" t="n">
-        <v>1676.751855212284</v>
+        <v>1254.867257619744</v>
       </c>
       <c r="W2" t="n">
-        <v>1289.764128876273</v>
+        <v>1254.867257619744</v>
       </c>
       <c r="X2" t="n">
-        <v>1282.084534084424</v>
+        <v>1247.187662827895</v>
       </c>
       <c r="Y2" t="n">
-        <v>1280.787668079719</v>
+        <v>1245.89079682319</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.7021352923174</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422924</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231743</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231743</v>
+        <v>796.7851917762481</v>
       </c>
       <c r="L3" t="n">
-        <v>328.5536830608395</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="M3" t="n">
-        <v>807.4926073032677</v>
+        <v>1754.663040261104</v>
       </c>
       <c r="N3" t="n">
-        <v>1286.431531545696</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="O3" t="n">
-        <v>1286.431531545696</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="P3" t="n">
         <v>1765.370455788124</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>490.8297886047868</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="C4" t="n">
-        <v>468.0444461310386</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="D4" t="n">
-        <v>304.7276732578093</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="E4" t="n">
-        <v>304.7276732578093</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="F4" t="n">
-        <v>304.7276732578093</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520415</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.7021352923174</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>96.19346351647542</v>
       </c>
       <c r="K4" t="n">
-        <v>265.2297364981546</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>619.9190577925754</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1011.104852762826</v>
+        <v>784.5877828974078</v>
       </c>
       <c r="N4" t="n">
-        <v>1388.596363638862</v>
+        <v>1162.079293773444</v>
       </c>
       <c r="O4" t="n">
-        <v>1744.024492318625</v>
+        <v>1517.507422453207</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615871</v>
+        <v>1808.106634375108</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1888.068151303043</v>
       </c>
       <c r="S4" t="n">
-        <v>1764.971717135006</v>
+        <v>1717.933103822178</v>
       </c>
       <c r="T4" t="n">
-        <v>1521.632369360907</v>
+        <v>1474.593756048078</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.447920861211</v>
+        <v>1194.409307548382</v>
       </c>
       <c r="V4" t="n">
-        <v>959.7364534692397</v>
+        <v>912.6978401564111</v>
       </c>
       <c r="W4" t="n">
-        <v>959.7364534692397</v>
+        <v>637.8454363289241</v>
       </c>
       <c r="X4" t="n">
-        <v>717.1725569150448</v>
+        <v>395.2815397747291</v>
       </c>
       <c r="Y4" t="n">
-        <v>490.8297886047868</v>
+        <v>282.2669720438871</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>783.8507533973007</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C5" t="n">
-        <v>760.9904274510048</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D5" t="n">
-        <v>741.7382106764092</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>719.8016748646708</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="W5" t="n">
-        <v>1212.675578485385</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>1204.995983693536</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>1203.699117688831</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>695.3677541233694</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>695.3677541233694</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>1246.033289107808</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>1246.033289107808</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1246.033289107808</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O6" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.1145108219148</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C7" t="n">
-        <v>712.1419477008308</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D7" t="n">
-        <v>548.8251748276015</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E7" t="n">
-        <v>382.616968980455</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394888</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W7" t="n">
-        <v>1484.213795394888</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X7" t="n">
-        <v>1300.623247844238</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y7" t="n">
-        <v>1074.28047953398</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>709.2637433779112</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>686.4034174316154</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>667.1512006570197</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4813,16 +4813,16 @@
         <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>2059.098288819458</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1534.449377714551</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.112107669441</v>
+        <v>474.3658485662004</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>740.4547267029481</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C10" t="n">
-        <v>568.482163581864</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D10" t="n">
-        <v>405.1653907086347</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E10" t="n">
-        <v>238.9571848614883</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F10" t="n">
-        <v>67.09541063604871</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4998,16 +4998,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1484.213795394888</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1209.361391567401</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>966.797495013206</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>740.4547267029481</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5080,13 +5080,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7493563677404</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="L12" t="n">
-        <v>946.5481644506465</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="M12" t="n">
-        <v>946.5481644506465</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N12" t="n">
-        <v>946.5481644506465</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O12" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P12" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>850.6571429016585</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C13" t="n">
-        <v>678.6845797805745</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D13" t="n">
-        <v>515.3678069073452</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>515.3678069073452</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>343.5060326819056</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>177.2490629761377</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5214,37 +5214,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2180.885068307898</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1937.545720533798</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1657.361272034102</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="X13" t="n">
-        <v>1267.165879923982</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y13" t="n">
-        <v>1040.823111613724</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883229</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5287,19 +5287,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5314,13 +5314,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1165.735894343786</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>1165.735894343786</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.9441885421152</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.580693338092</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1830.869225946121</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1556.016822118634</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1313.452925564439</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1087.110157254181</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5521,19 +5521,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4714.375569412722</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5542,25 +5542,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>308.8390190628106</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>308.8390190628106</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>308.8390190628106</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M18" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.622061704626</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>841.6494985835419</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1947.547099108631</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1947.547099108631</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1947.547099108631</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1672.694695281144</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1430.130798726949</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.788030416692</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,10 +5761,10 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
         <v>3833.214576747414</v>
@@ -5834,25 +5834,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.6450242445497</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>531.6450242445497</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1465.570061648555</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.717657821068</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>948.1537612668733</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.8109929566153</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,13 +6071,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.68756743822</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.306816359498</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1231.853536150285</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1231.853536150285</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
         <v>4997.579335409525</v>
@@ -6311,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3964.03697209373</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C28" t="n">
-        <v>3792.064408972646</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>4897.962009497735</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>4897.962009497735</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4897.962009497735</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="W28" t="n">
-        <v>4623.109605670248</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X28" t="n">
-        <v>4380.545709116053</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y28" t="n">
-        <v>4154.202940805795</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6551,13 +6551,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>855.9588572096898</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1267.165879923982</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.601983369787</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1024.601983369787</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q32" t="n">
-        <v>5021.974329743787</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6785,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.4138558574795</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>675.4412927363954</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1538.77499670729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1263.922592879803</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1263.922592879803</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1037.579824569545</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6955,16 +6955,16 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
         <v>4789.842805209199</v>
@@ -7007,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7022,16 +7022,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1727.678888491774</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7180,46 +7180,46 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495985</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133498</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7259,22 +7259,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1019.226866224298</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>847.2543031032135</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9375302299842</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828377</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.697402308208</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.697402308208</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1762.985934916237</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1488.13353108875</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1245.569634534555</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1019.226866224298</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,31 +7411,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409523</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
         <v>5010.768376164567</v>
@@ -7481,7 +7481,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>730.647150085061</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M42" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N42" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O42" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>869.7150043171357</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>706.3982314439064</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>540.1900255967599</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1982.471668406709</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.760201014738</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1700.760201014738</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1458.196304460543</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7654,43 +7654,43 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259876</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775161</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048099</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731003</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948607</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3313.894682672829</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3313.894682672829</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>3904.379609241169</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>4741.178417324075</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>5115.135670291425</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>5115.135670291425</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>5115.135670291425</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>5115.135670291425</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.81142285268</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.931487150358</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069995</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209262</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042479</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809142</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162434</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1185.483835930065</v>
+        <v>733.72140846125</v>
       </c>
       <c r="C46" t="n">
-        <v>1013.511272808981</v>
+        <v>561.748845340166</v>
       </c>
       <c r="D46" t="n">
-        <v>850.194499935752</v>
+        <v>398.4320724669367</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>2157.029425279572</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1876.844976779876</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.844976779876</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1601.992572952389</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487773</v>
+        <v>519.5412919487768</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865908</v>
+        <v>522.0887335865904</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7996,13 +7996,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>500.5723185172007</v>
+        <v>158.6236875856036</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873008</v>
       </c>
       <c r="L3" t="n">
-        <v>315.2944278945549</v>
+        <v>506.291777868197</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662959</v>
+        <v>506.8734716662955</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675096</v>
+        <v>32.15859945295624</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587966</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>130.8354367406519</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>215.3931969178313</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>111.3736009736648</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
@@ -8230,13 +8230,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8294,22 +8294,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>460.2559062950368</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8461,19 +8461,19 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>205.0632038737858</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>379.7269667620468</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8771,19 +8771,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>306.3476911866398</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>445.6743064779891</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8792,7 +8792,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>693.1063741240905</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,10 +9169,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>322.1890847023786</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9242,13 +9242,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>229.2336452999819</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>699.9714326937866</v>
       </c>
       <c r="M18" t="n">
         <v>1089.749849175</v>
@@ -9263,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9409,13 +9409,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9482,19 +9482,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>102.3499534169981</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,16 +9719,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9959,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O30" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>129.1350140843319</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602115997</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10670,19 +10670,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10828,25 +10828,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>517.654651463558</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130248</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,25 +10907,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>698.7993741930985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11077,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>466.3243076206832</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,16 +11138,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>382.7645285320491</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11159,7 +11159,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11302,13 +11302,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>322.1890847023768</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>400.8313794692477</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>68.16141973232105</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>67.62133122010472</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>123.9706457695738</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>77.52269600919311</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>203.2106128361664</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>211.9695101815324</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>53.32812537571793</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>129.0261359073654</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.30761412644836</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>34.77754424795489</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>115.7088052046615</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.269723356473</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>221.0469266229328</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.5212148013631</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>163.0447290920661</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>464205.7892274897</v>
+        <v>464205.7892274898</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>464205.7892274898</v>
+        <v>464205.7892274897</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>464205.7892274898</v>
+        <v>464205.7892274897</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>464205.7892274898</v>
+        <v>464205.7892274897</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>464205.7892274898</v>
+        <v>464205.7892274897</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>464205.7892274898</v>
+        <v>464205.7892274897</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>567881.601310884</v>
+      </c>
+      <c r="C2" t="n">
         <v>567881.6013108841</v>
       </c>
-      <c r="C2" t="n">
-        <v>567881.6013108839</v>
-      </c>
       <c r="D2" t="n">
-        <v>567881.6013108836</v>
+        <v>567881.601310884</v>
       </c>
       <c r="E2" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="F2" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.6430590106</v>
       </c>
       <c r="G2" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="H2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.6430590106</v>
       </c>
       <c r="I2" t="n">
         <v>547979.6430590109</v>
       </c>
       <c r="J2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.6430590111</v>
       </c>
       <c r="K2" t="n">
+        <v>547979.6430590111</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547979.6430590111</v>
+      </c>
+      <c r="M2" t="n">
         <v>547979.6430590109</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="O2" t="n">
         <v>547979.643059011</v>
       </c>
-      <c r="M2" t="n">
-        <v>547979.6430590107</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547979.6430590107</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547979.6430590107</v>
-      </c>
       <c r="P2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.6430590109</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361226</v>
+        <v>23406.83367361239</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701983</v>
+        <v>18646.60035701993</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171848.3668116666</v>
+        <v>171848.3668116667</v>
       </c>
       <c r="C4" t="n">
         <v>156753.0758057354</v>
@@ -26435,7 +26435,7 @@
         <v>29432.28705591147</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.28705591147</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26453,7 +26453,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
-        <v>29432.28705591153</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
         <v>29432.2870559115</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>170867.315607465</v>
       </c>
       <c r="C6" t="n">
-        <v>320275.4407941081</v>
+        <v>320275.4407941082</v>
       </c>
       <c r="D6" t="n">
-        <v>343682.2744677202</v>
+        <v>343682.2744677205</v>
       </c>
       <c r="E6" t="n">
-        <v>225057.9372580292</v>
+        <v>225006.9065958448</v>
       </c>
       <c r="F6" t="n">
-        <v>440797.29381467</v>
+        <v>440746.2631524851</v>
       </c>
       <c r="G6" t="n">
-        <v>440797.2938146699</v>
+        <v>440746.2631524852</v>
       </c>
       <c r="H6" t="n">
-        <v>440797.2938146696</v>
+        <v>440746.2631524851</v>
       </c>
       <c r="I6" t="n">
-        <v>440797.2938146697</v>
+        <v>440746.2631524854</v>
       </c>
       <c r="J6" t="n">
-        <v>314220.0252343808</v>
+        <v>314168.9945721969</v>
       </c>
       <c r="K6" t="n">
-        <v>422150.6934576498</v>
+        <v>422099.6627954657</v>
       </c>
       <c r="L6" t="n">
-        <v>440797.2938146698</v>
+        <v>440746.2631524856</v>
       </c>
       <c r="M6" t="n">
-        <v>260733.422359502</v>
+        <v>260682.3916973177</v>
       </c>
       <c r="N6" t="n">
-        <v>440797.2938146695</v>
+        <v>440746.2631524852</v>
       </c>
       <c r="O6" t="n">
-        <v>440797.2938146696</v>
+        <v>440746.2631524855</v>
       </c>
       <c r="P6" t="n">
-        <v>440797.2938146696</v>
+        <v>440746.2631524854</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162665</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162665</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572622</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162665</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>154.9650843542134</v>
       </c>
       <c r="W2" t="n">
-        <v>9.309587130005866</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27539,10 +27539,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>147.6953484408624</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27551,10 +27551,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>112.1949185736217</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>47.50789120237619</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>162.8640785093686</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>59.64236734312294</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>58.38361551350994</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>74.65813289307459</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>261.0072389248297</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28013,25 +28013,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G10" t="n">
-        <v>142.223186277777</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>462.9969567069694</v>
+        <v>121.0483257753723</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="L3" t="n">
-        <v>292.7793411803253</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539679</v>
+        <v>10.81557123941458</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>108.2599968491661</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>193.0123962598448</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
@@ -34950,13 +34950,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>437.0840165728146</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35181,19 +35181,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.9484573533065</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35582,7 +35582,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977442</v>
       </c>
       <c r="P13" t="n">
         <v>293.5345574968697</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>669.9344844018683</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>286.0644100977806</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>208.6225309666486</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>677.456345979557</v>
       </c>
       <c r="M18" t="n">
         <v>1066.653068662672</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36129,13 +36129,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>81.00692520345643</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O30" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>94.10236418953542</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013684</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>480.2233885641263</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570007</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>677.4563459795569</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37797,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>428.7489458104519</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>360.2494418178196</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>286.0644100977787</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>377.7345989569197</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
